--- a/PISA SIB Results for Patrick_06.25.18.xlsx
+++ b/PISA SIB Results for Patrick_06.25.18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7068" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7068" firstSheet="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Immigration Status" sheetId="4" r:id="rId4"/>
     <sheet name="ESCS" sheetId="5" r:id="rId5"/>
     <sheet name="School Location" sheetId="7" r:id="rId6"/>
+    <sheet name="Descriptives - parent dummy" sheetId="12" r:id="rId7"/>
+    <sheet name="Log Reg, no controls" sheetId="8" r:id="rId8"/>
+    <sheet name="Lin Reg, no controls" sheetId="9" r:id="rId9"/>
+    <sheet name="Log Reg, controls" sheetId="10" r:id="rId10"/>
+    <sheet name="Lin Reg, controls" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="109">
   <si>
     <t>Research Question 1</t>
   </si>
@@ -191,14 +196,180 @@
   </si>
   <si>
     <t>significance</t>
+  </si>
+  <si>
+    <t>Research Question 2</t>
+  </si>
+  <si>
+    <t>CNTRYID</t>
+  </si>
+  <si>
+    <t>EqVar</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ExpB</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>b.se</t>
+  </si>
+  <si>
+    <t>ExpB.se</t>
+  </si>
+  <si>
+    <t>b.wald</t>
+  </si>
+  <si>
+    <t>b.sig</t>
+  </si>
+  <si>
+    <t>convar</t>
+  </si>
+  <si>
+    <t>catvar</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>refcats</t>
+  </si>
+  <si>
+    <t>CONSTANT</t>
+  </si>
+  <si>
+    <t>SCIENCE_DUMMY3</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SCIENCE_PARENT_DUMMY</t>
+  </si>
+  <si>
+    <t>INDICATOR</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>SCIENCE_PARENT_DUMMY(1)</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>beta.se</t>
+  </si>
+  <si>
+    <t>b.t</t>
+  </si>
+  <si>
+    <t>beta.t</t>
+  </si>
+  <si>
+    <t>xvar</t>
+  </si>
+  <si>
+    <t>missoptn</t>
+  </si>
+  <si>
+    <t>(CONSTANT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SCIENCE_PARENT_DUMMY_d2</t>
+  </si>
+  <si>
+    <t>science_dummy3</t>
+  </si>
+  <si>
+    <t>listwise</t>
+  </si>
+  <si>
+    <t>science_parent_dummy</t>
+  </si>
+  <si>
+    <t>parent YES</t>
+  </si>
+  <si>
+    <t>parent NO</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ESCS PV_MATH PV_READ</t>
+  </si>
+  <si>
+    <t>SCIENCE_PARENT_DUMMY ST004D01T</t>
+  </si>
+  <si>
+    <t>INDICATOR INDICATOR</t>
+  </si>
+  <si>
+    <t>1 DEFAULT</t>
+  </si>
+  <si>
+    <t>21-JUN-18</t>
+  </si>
+  <si>
+    <t>10h50m</t>
+  </si>
+  <si>
+    <t>PV_MATH</t>
+  </si>
+  <si>
+    <t>PV_READ</t>
+  </si>
+  <si>
+    <t>ST004D01T(1)</t>
+  </si>
+  <si>
+    <t>Table Average</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCIENCE_PARENT_DUMMY_d2 ST004D01T_d2 ESCS PV_MATH PV_READ</t>
+  </si>
+  <si>
+    <t>science_dummy3_</t>
+  </si>
+  <si>
+    <t>10h53m</t>
+  </si>
+  <si>
+    <t>ST004D01T_D2</t>
+  </si>
+  <si>
+    <t>Descriptives</t>
+  </si>
+  <si>
+    <t>Log reg no controls</t>
+  </si>
+  <si>
+    <t>Lin reg no controls</t>
+  </si>
+  <si>
+    <t>Log reg controls</t>
+  </si>
+  <si>
+    <t>Lin reg controls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000000000000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -242,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -251,6 +422,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -566,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,6 +779,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="Gender!A1" display="Gender"/>
@@ -614,7 +816,1849 @@
     <hyperlink ref="A4" location="'Immigration Status'!A1" display="Immigration Status"/>
     <hyperlink ref="A5" location="ESCS!A1" display="ESCS"/>
     <hyperlink ref="A6" location="'School Location'!A1" display="School Location"/>
+    <hyperlink ref="A8" location="'Descriptives - parent dummy'!A1" display="Descriptives"/>
+    <hyperlink ref="A9" location="'Log Reg, no controls'!A1" display="Log reg no controls"/>
+    <hyperlink ref="A10" location="'Lin Reg, no controls'!A1" display="Lin reg no controls"/>
+    <hyperlink ref="A11" location="'Log Reg, controls'!A1" display="Log reg controls"/>
+    <hyperlink ref="A12" location="'Lin Reg, controls'!A1" display="Lin reg controls"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:X13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-1.8122746088127646</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.16357536888910076</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.21501773658057324</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3.6156303607875091E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>71.039425352255833</v>
+      </c>
+      <c r="I2" s="8">
+        <v>3.501573407816598E-17</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U2" s="4">
+        <v>80</v>
+      </c>
+      <c r="V2" s="4">
+        <v>10</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.4887677707261734E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.0150079289177738</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.7727923733600824E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.812607397508857E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.28828312110845722</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.59132285299417509</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" s="4">
+        <v>80</v>
+      </c>
+      <c r="V3" s="4">
+        <v>10</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.0500166317714038E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.0020522427771772</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8.1335170846723412E-4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8.1505621134895405E-4</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6.3526949651679478</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1.1720312039319147E-2</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" s="4">
+        <v>80</v>
+      </c>
+      <c r="V4" s="4">
+        <v>10</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.0536234898354174E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.000605636216388</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7.4450119676844166E-4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7.4493220220113205E-4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.66115001464402445</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.41615423824674802</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" s="4">
+        <v>80</v>
+      </c>
+      <c r="V5" s="4">
+        <v>10</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.27432386346320364</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.3156449110071742</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.6933701455075605E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7.5148147657504022E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>23.216050390986755</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.4478388619541574E-6</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="4">
+        <v>80</v>
+      </c>
+      <c r="V6" s="4">
+        <v>10</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.32315106758259693</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.3815729145731457</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6.6131551089022259E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>9.1967337921787809E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>23.877770407262865</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1.026502912132542E-6</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="4">
+        <v>80</v>
+      </c>
+      <c r="V7" s="4">
+        <v>10</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-1.8122746088127646</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.16357536888910076</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.21501773658057324</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3.6156303607875091E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>71.039425352255833</v>
+      </c>
+      <c r="I8" s="8">
+        <v>3.501573407816598E-17</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" s="4">
+        <v>80</v>
+      </c>
+      <c r="V8" s="4">
+        <v>10</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.4887677707261734E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0150079289177738</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.7727923733600824E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.812607397508857E-2</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.28828312110845722</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.59132285299417509</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="4">
+        <v>80</v>
+      </c>
+      <c r="V9" s="4">
+        <v>10</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.0500166317714038E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.0020522427771772</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8.1335170846723412E-4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8.1505621134895405E-4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>6.3526949651679478</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1.1720312039319147E-2</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="4">
+        <v>80</v>
+      </c>
+      <c r="V10" s="4">
+        <v>10</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6.0536234898354174E-4</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.000605636216388</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>7.4450119676844166E-4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7.4493220220113205E-4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.66115001464402445</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.41615423824674802</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="4">
+        <v>80</v>
+      </c>
+      <c r="V11" s="4">
+        <v>10</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.27432386346320364</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.3156449110071742</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.6933701455075605E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7.5148147657504022E-2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>23.216050390986755</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1.4478388619541574E-6</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" s="4">
+        <v>80</v>
+      </c>
+      <c r="V12" s="4">
+        <v>10</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.32315106758259693</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.3815729145731457</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.6131551089022259E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9.1967337921787809E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>23.877770407262865</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1.026502912132542E-6</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U13" s="4">
+        <v>80</v>
+      </c>
+      <c r="V13" s="4">
+        <v>10</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.14293194956460659</v>
+      </c>
+      <c r="D2" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5.3160202183543316E-2</v>
+      </c>
+      <c r="F2" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.6887021435906746</v>
+      </c>
+      <c r="H2" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2" s="4">
+        <v>80</v>
+      </c>
+      <c r="S2" s="4">
+        <v>10</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.7001321872674208E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.4983873408214861E-3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.620831012981835E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.3407435229778664E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.55886220023020738</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.55927082341350032</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" s="4">
+        <v>80</v>
+      </c>
+      <c r="S3" s="4">
+        <v>10</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.6292796788926869E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.2397256610502508E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.3761412006912752E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.3001158305051773E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4.8172961288875076</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.7993613450777861</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="4">
+        <v>80</v>
+      </c>
+      <c r="S4" s="4">
+        <v>10</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-7.7527726407198724E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-7.8338745393427944E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.5851628901382243E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.6015092646432298E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-4.8908365751887111</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-4.8915574279165694</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" s="4">
+        <v>80</v>
+      </c>
+      <c r="S5" s="4">
+        <v>10</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.9086049958598432E-4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8.7602957444141663E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.9305889647482373E-4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.4291078002070215E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.5425427605196949</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.5546865992038197</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="4">
+        <v>80</v>
+      </c>
+      <c r="S6" s="4">
+        <v>10</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.4386821382780584E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2.8925070449159086E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.7728448380272674E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.5536829824306823E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.81151046466026411</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.81394628030029392</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="4">
+        <v>80</v>
+      </c>
+      <c r="S7" s="4">
+        <v>10</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.14293194956460659</v>
+      </c>
+      <c r="D8" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5.3160202183543316E-2</v>
+      </c>
+      <c r="F8" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.6887021435906746</v>
+      </c>
+      <c r="H8" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8" s="4">
+        <v>80</v>
+      </c>
+      <c r="S8" s="4">
+        <v>10</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.7001321872674208E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7.4983873408214861E-3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6.620831012981835E-3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.3407435229778664E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.55886220023020738</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.55927082341350032</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R9" s="4">
+        <v>80</v>
+      </c>
+      <c r="S9" s="4">
+        <v>10</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6.6292796788926869E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6.2397256610502508E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.3761412006912752E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.3001158305051773E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4.8172961288875076</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.7993613450777861</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="4">
+        <v>80</v>
+      </c>
+      <c r="S10" s="4">
+        <v>10</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-7.7527726407198724E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-7.8338745393427944E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.5851628901382243E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.6015092646432298E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>-4.8908365751887111</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-4.8915574279165694</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="4">
+        <v>80</v>
+      </c>
+      <c r="S11" s="4">
+        <v>10</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.9086049958598432E-4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.7602957444141663E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.9305889647482373E-4</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.4291078002070215E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2.5425427605196949</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2.5546865992038197</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" s="4">
+        <v>80</v>
+      </c>
+      <c r="S12" s="4">
+        <v>10</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.4386821382780584E-4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.8925070449159086E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1.7728448380272674E-4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.5536829824306823E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.81151046466026411</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.81394628030029392</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R13" s="4">
+        <v>80</v>
+      </c>
+      <c r="S13" s="4">
+        <v>10</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -671,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1741,4 +3785,646 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2275</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1403118.5480399886</v>
+      </c>
+      <c r="F2" s="4">
+        <v>41155.079874740681</v>
+      </c>
+      <c r="G2" s="4">
+        <v>70.461054596877233</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.82905741492824792</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4">
+        <v>80</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>951</v>
+      </c>
+      <c r="E3" s="4">
+        <v>588220.5769099996</v>
+      </c>
+      <c r="F3" s="4">
+        <v>23293.324299614382</v>
+      </c>
+      <c r="G3" s="4">
+        <v>29.538945403122764</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.82905741492824936</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>80</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1571</v>
+      </c>
+      <c r="E4" s="4">
+        <v>964424.88623999932</v>
+      </c>
+      <c r="F4" s="4">
+        <v>37485.459226897037</v>
+      </c>
+      <c r="G4" s="4">
+        <v>62.904481248242838</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.2213248103193246</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>80</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>915</v>
+      </c>
+      <c r="E5" s="4">
+        <v>568732.79521999904</v>
+      </c>
+      <c r="F5" s="4">
+        <v>33166.771411103276</v>
+      </c>
+      <c r="G5" s="4">
+        <v>37.095518751757169</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.2213248103193222</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>80</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>62.904481248242838</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.2213248103193246</v>
+      </c>
+      <c r="D8" s="4">
+        <v>70.461054596877233</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.82905741492824792</v>
+      </c>
+      <c r="F8" s="5">
+        <f>B8-D8</f>
+        <v>-7.5565733486343944</v>
+      </c>
+      <c r="G8" s="7">
+        <f>F8/SQRT(ABS(((C8)^2)-((E8)^2)))</f>
+        <v>-8.4259015838982911</v>
+      </c>
+      <c r="H8">
+        <f>G8/1.96</f>
+        <v>-4.2989293795399446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>37.095518751757169</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.2213248103193222</v>
+      </c>
+      <c r="D9" s="4">
+        <v>29.538945403122764</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.82905741492824936</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9:F11" si="0">B9-D9</f>
+        <v>7.5565733486344051</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" ref="G9:G11" si="1">F9/SQRT(ABS(((C9)^2)-((E9)^2)))</f>
+        <v>8.4259015838983462</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H11" si="2">G9/1.96</f>
+        <v>4.298929379539973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-0.37492062177261898</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.68734383676094946</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.6134297481926245E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.4928673759809471E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>107.65629411892201</v>
+      </c>
+      <c r="I2" s="8">
+        <v>3.1967500154881367E-25</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.34122933306361641</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.4066758011448781</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5.609474539796537E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7.9006873756941362E-2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>37.00397273089645</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1.1788880602236137E-9</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.40735256311497564</v>
+      </c>
+      <c r="D2" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8.7283075968946564E-3</v>
+      </c>
+      <c r="F2" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="G2" s="4">
+        <v>46.67028041723723</v>
+      </c>
+      <c r="H2" s="4" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.4225411348189325E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.9778161088828986E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.3894724001542468E-2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.3261838996194807E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>6.0616829336688784</v>
+      </c>
+      <c r="H3" s="4">
+        <v>6.0156182797664464</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PISA SIB Results for Patrick_06.25.18.xlsx
+++ b/PISA SIB Results for Patrick_06.25.18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7068" firstSheet="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7068" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="113">
   <si>
     <t>Research Question 1</t>
   </si>
@@ -361,6 +361,18 @@
   </si>
   <si>
     <t>Lin reg controls</t>
+  </si>
+  <si>
+    <t>12h21m</t>
+  </si>
+  <si>
+    <t>ttest</t>
+  </si>
+  <si>
+    <t>parent no</t>
+  </si>
+  <si>
+    <t>parent yes</t>
   </si>
 </sst>
 </file>
@@ -740,7 +752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2716,7 +2728,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H15"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3789,10 +3801,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3802,7 +3814,7 @@
     <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -3840,7 +3852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>46</v>
       </c>
@@ -3878,7 +3890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -3916,7 +3928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -3954,7 +3966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -3992,7 +4004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>83</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -4047,7 +4059,7 @@
         <v>-4.2989293795399446</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -4064,19 +4076,19 @@
         <v>0.82905741492824936</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" ref="F9:F11" si="0">B9-D9</f>
+        <f t="shared" ref="F9" si="0">B9-D9</f>
         <v>7.5565733486344051</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9:G11" si="1">F9/SQRT(ABS(((C9)^2)-((E9)^2)))</f>
+        <f t="shared" ref="G9" si="1">F9/SQRT(ABS(((C9)^2)-((E9)^2)))</f>
         <v>8.4259015838983462</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H11" si="2">G9/1.96</f>
+        <f t="shared" ref="H9" si="2">G9/1.96</f>
         <v>4.298929379539973</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4085,14 +4097,357 @@
       <c r="F10" s="5"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3846</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2367543.4342800002</v>
+      </c>
+      <c r="F12" s="4">
+        <v>67276.732645837765</v>
+      </c>
+      <c r="G12" s="4">
+        <v>67.173941822678202</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.80218829514094281</v>
+      </c>
+      <c r="I12" s="4">
+        <v>498.15124044779952</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2.9890831568464806</v>
+      </c>
+      <c r="K12" s="4">
+        <v>8.4683354714893664</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.46628264705395411</v>
+      </c>
+      <c r="M12" s="4">
+        <v>95.757763180275518</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1.4389130781256754</v>
+      </c>
+      <c r="O12" s="4">
+        <v>9169.8915760625241</v>
+      </c>
+      <c r="P12" s="4">
+        <v>275.498198470121</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1.1955664410744915</v>
+      </c>
+      <c r="R12" s="4">
+        <v>3.1343490411197497</v>
+      </c>
+      <c r="S12" s="4">
+        <v>3.5517560871022926</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1.0550619007269852</v>
+      </c>
+      <c r="U12" s="4">
+        <v>3.7473225281767841</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" s="4">
+        <v>80</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1866</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1156953.3721299933</v>
+      </c>
+      <c r="F13" s="4">
+        <v>48821.762958140884</v>
+      </c>
+      <c r="G13" s="4">
+        <v>32.826058177321791</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.80218829514094347</v>
+      </c>
+      <c r="I13" s="4">
+        <v>492.3363293688538</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4.5701844333350081</v>
+      </c>
+      <c r="K13" s="4">
+        <v>20.433677698878256</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.4529080558193746</v>
+      </c>
+      <c r="M13" s="4">
+        <v>104.125232025283</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2.0594288938432159</v>
+      </c>
+      <c r="O13" s="4">
+        <v>10842.543439777723</v>
+      </c>
+      <c r="P13" s="4">
+        <v>428.16732522373519</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>1.0779454043096994</v>
+      </c>
+      <c r="R13" s="4">
+        <v>3.3346569029851993</v>
+      </c>
+      <c r="S13" s="4">
+        <v>3.5166326792128118</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1.0221647841614061</v>
+      </c>
+      <c r="U13" s="4">
+        <v>3.594578083522511</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="4">
+        <v>80</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="4">
+        <v>498.15124044779952</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.9890831568464806</v>
+      </c>
+      <c r="D16" s="4">
+        <v>492.3363293688538</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.5701844333350081</v>
+      </c>
+      <c r="F16" s="5">
+        <f>B16-D16</f>
+        <v>5.8149110789457268</v>
+      </c>
+      <c r="G16" s="7">
+        <f>F16/SQRT(ABS(((C16)^2)-((E16)^2)))</f>
+        <v>1.6819898615231341</v>
+      </c>
+      <c r="H16">
+        <f>G16/1.96</f>
+        <v>0.8581580926138439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
